--- a/medicine/Enfance/Theater_an_der_Parkaue/Theater_an_der_Parkaue.xlsx
+++ b/medicine/Enfance/Theater_an_der_Parkaue/Theater_an_der_Parkaue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Theater an der Parkaue – Junges Staatstheater Berlin est l'un des plus importants théâtres allemands pour jeune public. Le théâtre est abrité par un bâtiment construit au début du vingtième siècle, et il fut fondé en 1948 sur ordre de l'administration militaire soviétique en Allemagne, l'autre partie du bâtiment ayant été le palais des pionniers. L'ensemble du lieu est sous protection du patrimoine culturel.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction de l'immeuble en forme de U eut lieu pendant les années 1910 et 1911, et il accueillit ensuite un gymnasium.  Le 1er janvier 1934, à la suite de la loi allemande des pleins pouvoirs de 1933 et dans le cadre de la Gleichschaltung, les nazis baptisèrent l'école du nom du ministre de l'éducation du peuple et de la propagande, Joseph Goebbels.
 Le 30 juin 1965, l'administration soviétique en Allemagne a converti le bâtiment en lieu culturel, et c'est un ancien étudiant du Bauhaus, Waldemar Alder, ainsi que son partenaire, Waldemar Heinrichs, qui se chargèrent de la conversion. Le mobilier intérieur fut fourni par la Deutsche Werkstätten Hellerau (de).
@@ -521,7 +535,7 @@
 La Maison des jeunes pionniers employait près de 40 éducateurs à temps plein et accueillait prés d'une centaine de bénévoles. En moyenne, elle recevait 360 000 personnes par an.
 L'aile sud devint un théâtre pour enfants dès 1950 et reçut le nom de Théâtre de l'Amitié.
 Son premier directeur fut Hans Rodenberg (de). Son épouse, Ilse Rodenberg dirigea le lieu de 1958 à 1974. Après la réunification allemande, le théâtre prit le nom de carrousel Theater an der Parkaue, puis Theater an der Parkaue depuis 2005
-Pour la saison 2021/2022, la direction sera assurée par Christina Schulz et Alexander Riemenschneider[1]
+Pour la saison 2021/2022, la direction sera assurée par Christina Schulz et Alexander Riemenschneider
 	La Maison centrale des jeunes pionniers
 			La Maison centrale des jeunes pionniers, vers 1950
 			En 1969
